--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -4591,7 +4591,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" ht="9.0" customHeight="1">
+    <row r="65" ht="10.5" customHeight="1">
       <c r="A65" s="49"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>

--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -3976,10 +3976,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="3"/>
-      <c r="AH50" s="63">
-        <f>SUM(AH41:AH48)</f>
-        <v>0</v>
-      </c>
+      <c r="AH50" s="63"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>

--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -5358,7 +5358,7 @@
     <mergeCell ref="A52:AN52"/>
   </mergeCells>
   <printOptions/>
-  <pageMargins bottom="0.059722222222222225" footer="0.0" header="0.0" left="0.1597222222222222" right="0.1597222222222222" top="0.059722222222222225"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -1799,7 +1799,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5359,7 +5359,7 @@
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -1799,7 +1799,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5358,8 +5358,8 @@
     <mergeCell ref="A52:AN52"/>
   </mergeCells>
   <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.55" right="0.0" top="0.2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -5358,7 +5358,7 @@
     <mergeCell ref="A52:AN52"/>
   </mergeCells>
   <printOptions/>
-  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.55" right="0.0" top="0.2"/>
+  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.4" right="0.0" top="0.2"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/backend/go-space/storage/cp58_redo.xlsx
+++ b/backend/go-space/storage/cp58_redo.xlsx
@@ -5358,7 +5358,7 @@
     <mergeCell ref="A52:AN52"/>
   </mergeCells>
   <printOptions/>
-  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.4" right="0.0" top="0.2"/>
+  <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.38" right="0.0" top="0.2"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
